--- a/Intervention 1/Scenario Analysis Timeframe.xlsx
+++ b/Intervention 1/Scenario Analysis Timeframe.xlsx
@@ -68,64 +68,64 @@
     <t>46</t>
   </si>
   <si>
-    <t>903583455.880778</t>
-  </si>
-  <si>
-    <t>1127711714.91387</t>
-  </si>
-  <si>
-    <t>1068945114.4068</t>
-  </si>
-  <si>
-    <t>918787759.676129</t>
-  </si>
-  <si>
-    <t>819261808.974176</t>
-  </si>
-  <si>
-    <t>230.588472865333</t>
-  </si>
-  <si>
-    <t>504.592480402382</t>
-  </si>
-  <si>
-    <t>664.875349696667</t>
-  </si>
-  <si>
-    <t>745.578555458516</t>
-  </si>
-  <si>
-    <t>772.107160725922</t>
-  </si>
-  <si>
-    <t>930317.876942657</t>
-  </si>
-  <si>
-    <t>1772688.78533018</t>
-  </si>
-  <si>
-    <t>2251031.32577129</t>
-  </si>
-  <si>
-    <t>2493238.69834547</t>
-  </si>
-  <si>
-    <t>2574143.94433136</t>
-  </si>
-  <si>
-    <t>1317274.6100536</t>
-  </si>
-  <si>
-    <t>2527529.62006712</t>
-  </si>
-  <si>
-    <t>3550187.92389894</t>
-  </si>
-  <si>
-    <t>4419800.15335655</t>
-  </si>
-  <si>
-    <t>4880619.69514728</t>
+    <t>912261137.409362</t>
+  </si>
+  <si>
+    <t>1145084169.00089</t>
+  </si>
+  <si>
+    <t>1092965034.95472</t>
+  </si>
+  <si>
+    <t>947897913.909862</t>
+  </si>
+  <si>
+    <t>850894453.187894</t>
+  </si>
+  <si>
+    <t>1092.67382125801</t>
+  </si>
+  <si>
+    <t>2424.53610411938</t>
+  </si>
+  <si>
+    <t>3207.21197185642</t>
+  </si>
+  <si>
+    <t>3602.5245692532</t>
+  </si>
+  <si>
+    <t>3732.83737464552</t>
+  </si>
+  <si>
+    <t>2975321.26930352</t>
+  </si>
+  <si>
+    <t>6322139.16841889</t>
+  </si>
+  <si>
+    <t>8273548.72198048</t>
+  </si>
+  <si>
+    <t>9260278.7945701</t>
+  </si>
+  <si>
+    <t>9586774.16410338</t>
+  </si>
+  <si>
+    <t>7949952.7462759</t>
+  </si>
+  <si>
+    <t>15350533.3239965</t>
+  </si>
+  <si>
+    <t>21547591.0756111</t>
+  </si>
+  <si>
+    <t>26762914.2908649</t>
+  </si>
+  <si>
+    <t>29500633.6890926</t>
   </si>
   <si>
     <t>1024870557.01145</t>
